--- a/04_Metricas/Metricas_G2.xlsx
+++ b/04_Metricas/Metricas_G2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Aseguramiento Git\2563_G2_ACSW\04_Metricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933A2583-4460-4E72-97DF-2B61E53C4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0D516C-6BE4-46B6-A37D-81D378CCE0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{D9A8F63F-1095-4855-AA2F-0979A7B7E7E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D9A8F63F-1095-4855-AA2F-0979A7B7E7E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla 6.2" sheetId="1" r:id="rId1"/>
     <sheet name="Tabla 6.3" sheetId="3" r:id="rId2"/>
     <sheet name="Tabla 6.4" sheetId="5" r:id="rId3"/>
+    <sheet name="Defectos" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
   <si>
     <t xml:space="preserve">Programa </t>
   </si>
@@ -168,6 +169,21 @@
   </si>
   <si>
     <t>Estimado Total</t>
+  </si>
+  <si>
+    <t>Número de programas</t>
+  </si>
+  <si>
+    <t>Defectos</t>
+  </si>
+  <si>
+    <t>Dd Planificado</t>
+  </si>
+  <si>
+    <t>TOTAL HASTA LA FECHA</t>
+  </si>
+  <si>
+    <t>Microsesrvicio Reserva</t>
   </si>
 </sst>
 </file>
@@ -215,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,11 +263,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,31 +320,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -327,6 +335,29 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B024CD0-F7E0-4955-865F-CF85F18C2AAE}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,44 +686,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -872,12 +903,12 @@
       <c r="D18" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -895,7 +926,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
         <v>30</v>
@@ -910,7 +941,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
         <v>12</v>
@@ -925,7 +956,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="1">
         <v>40</v>
@@ -940,7 +971,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -955,7 +986,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1">
         <v>50</v>
@@ -1020,7 +1051,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,45 +1063,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1276,13 +1307,13 @@
       <c r="D17" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1303,7 +1334,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
         <f>'Tabla 6.2'!B23</f>
@@ -1317,13 +1348,13 @@
         <f>'Tabla 6.2'!D23</f>
         <v>2</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="1">
         <f>'Tabla 6.2'!B24</f>
@@ -1337,13 +1368,13 @@
         <f>'Tabla 6.2'!D24</f>
         <v>1.2</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
         <f>'Tabla 6.2'!B25</f>
@@ -1357,13 +1388,13 @@
         <f>'Tabla 6.2'!D25</f>
         <v>0.58823529411764708</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <f>'Tabla 6.2'!B26</f>
@@ -1377,13 +1408,13 @@
         <f>'Tabla 6.2'!D26</f>
         <v>0.8928571428571429</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <f>'Tabla 6.2'!B27</f>
@@ -1397,7 +1428,7 @@
         <f>'Tabla 6.2'!D27</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1458,8 +1489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6243E1F0-7487-458C-BEF7-B2F84D4B358A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1477,51 +1508,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1553,7 +1584,7 @@
       <c r="B6" s="1">
         <v>50</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1579,7 +1610,7 @@
       <c r="B7" s="1">
         <v>30</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1605,7 +1636,7 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1631,7 +1662,7 @@
       <c r="B9" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1657,7 +1688,7 @@
       <c r="B10" s="1">
         <v>30</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1683,7 +1714,7 @@
       <c r="B11" s="1">
         <v>50</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1709,7 +1740,7 @@
       <c r="B12" s="1">
         <v>45</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1784,17 +1815,17 @@
       <c r="E16" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1818,17 +1849,17 @@
       <c r="G19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
         <v>50</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1846,17 +1877,17 @@
         <f>F20+(F20*0.2)</f>
         <v>36</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>30</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="15" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1877,12 +1908,12 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>4</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="15" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1903,12 +1934,12 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -1929,12 +1960,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1">
         <v>30</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="15" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -1960,54 +1991,345 @@
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="24">
+      <c r="E25" s="17">
         <f>SUM(E20:E24)</f>
         <v>125.6</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="17">
         <f t="shared" ref="F25:G25" si="5">SUM(F20:F24)</f>
         <v>157</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="17">
         <f t="shared" si="5"/>
         <v>188.4</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="21"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19">
         <f>SUM(E13+E25)</f>
         <v>535.20000000000005</v>
       </c>
-      <c r="F28" s="26">
+      <c r="F28" s="19">
         <f t="shared" ref="F28:G28" si="6">SUM(F13+F25)</f>
         <v>669</v>
       </c>
-      <c r="G28" s="26">
+      <c r="G28" s="19">
         <f t="shared" si="6"/>
         <v>802.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A18:G18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43476875-58DA-43BB-9C95-9C4D86410C67}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <f>'Tabla 6.2'!C6</f>
+        <v>88</v>
+      </c>
+      <c r="D3" s="6">
+        <f>(1000*B3)/C3</f>
+        <v>68.181818181818187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <f>'Tabla 6.2'!C7</f>
+        <v>70</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D19" si="0">(1000*B4)/C4</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'Tabla 6.2'!C8</f>
+        <v>61</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>32.786885245901637</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>'Tabla 6.2'!C9</f>
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>119.04761904761905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'Tabla 6.2'!C10</f>
+        <v>4</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'Tabla 6.2'!C11</f>
+        <v>130</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <f>'Tabla 6.2'!C12</f>
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <f>SUM(B3:B9)</f>
+        <v>29</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:D10" si="1">SUM(C3:C9)</f>
+        <v>405</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>1144.1921466511631</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <f>'Tabla 6.2'!C23</f>
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <f>'Tabla 6.2'!C24</f>
+        <v>10</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
+        <v>9</v>
+      </c>
+      <c r="B16" s="25">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <f>'Tabla 6.2'!C25</f>
+        <v>68</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>58.823529411764703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
+        <v>10</v>
+      </c>
+      <c r="B17" s="25">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <f>'Tabla 6.2'!C26</f>
+        <v>28</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <f>'Tabla 6.2'!C27</f>
+        <v>30</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="1">
+        <f>SUM(B14:B18)</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:D19" si="2">SUM(C14:C18)</f>
+        <v>151</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="2"/>
+        <v>596.91876750700283</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
